--- a/ExcelTestInputData/Mamatva.xlsx
+++ b/ExcelTestInputData/Mamatva.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\Jyotsna - Pharmacy\ExcelTestInputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Updated-Mamatva\ExcelTestInputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A26C83-6328-40C2-B22D-C740C01763BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138CA1CE-85A0-4548-A016-44B61EA223B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2720" windowWidth="14400" windowHeight="7360" xr2:uid="{2EFE5C9F-061C-472A-9413-BC4436AA60B6}"/>
   </bookViews>
@@ -57,28 +57,28 @@
     <t>Admin/User Name</t>
   </si>
   <si>
-    <t>Sampark</t>
-  </si>
-  <si>
     <t>Sambalpur</t>
   </si>
   <si>
-    <t>sampark@gmail.com</t>
-  </si>
-  <si>
     <t>$@mP@Rk23</t>
   </si>
   <si>
-    <t>Ganjam</t>
-  </si>
-  <si>
-    <t>Sandhya</t>
-  </si>
-  <si>
-    <t>sandhya13@gmail.com</t>
-  </si>
-  <si>
     <t>$@ndhy@23</t>
+  </si>
+  <si>
+    <t>Sampark1</t>
+  </si>
+  <si>
+    <t>sampark1@gmail.com</t>
+  </si>
+  <si>
+    <t>Ganjam1</t>
+  </si>
+  <si>
+    <t>Sandhyaa</t>
+  </si>
+  <si>
+    <t>sandhya134@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -545,13 +545,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
